--- a/data/georgia_census/adjara/qeda/average_wages.xlsx
+++ b/data/georgia_census/adjara/qeda/average_wages.xlsx
@@ -1106,13 +1106,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA92F1B3-73E3-474E-AA47-6D3F6E5C0586}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB12AA24-6D30-44EE-95DB-CD8A2005C695}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33B9EC3D-F1BA-47CB-BA02-8018D4B7FBA6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E49D61F1-F6F0-4029-B19F-7E20CF820F03}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{076EB5CD-5CBB-41D6-B6C0-E5BB9487FFB3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A51B85C-D4BD-4037-B580-61A291BF9D60}"/>
 </file>